--- a/Technology/Palo Alto Networks.xlsx
+++ b/Technology/Palo Alto Networks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F02DD11-9C1F-9C46-A584-F8270DF51DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE204922-1401-C04F-94DC-F00C6FB7FFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23540" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -992,6 +995,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2450,11 +2456,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O65" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q132" sqref="Q132"/>
+      <selection pane="bottomRight" activeCell="T89" sqref="T89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2583,6 +2589,10 @@
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
     </row>
     <row r="3" spans="1:24" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3456,7 +3466,7 @@
         <v>31.36168312963893</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3503,7 +3513,7 @@
         <v>20200000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3549,8 +3559,11 @@
       <c r="O18" s="1">
         <v>282600000</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="U18" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3596,8 +3609,12 @@
       <c r="O19" s="10">
         <v>95600000</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="67">
+        <f>O40-O56-O61</f>
+        <v>-318400000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>102</v>
       </c>
@@ -3655,7 +3672,7 @@
         <v>28.875</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3702,7 +3719,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3749,7 +3766,7 @@
         <v>-188800000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3796,7 +3813,7 @@
         <v>-3.4299999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3843,7 +3860,7 @@
         <v>-18400000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3890,7 +3907,7 @@
         <v>-207200000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3937,7 +3954,7 @@
         <v>-3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3984,7 +4001,7 @@
         <v>59800000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4031,7 +4048,7 @@
         <v>-267000000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>103</v>
       </c>
@@ -4089,7 +4106,7 @@
         <v>-0.46482260974143119</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4136,7 +4153,7 @@
         <v>-4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4183,7 +4200,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -8049,8 +8066,8 @@
         <v>155</v>
       </c>
       <c r="Q114" s="51">
-        <f>O34</f>
-        <v>295500000</v>
+        <f>O34*(1+(5*U16))</f>
+        <v>320527883.87453437</v>
       </c>
     </row>
     <row r="115" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8059,7 +8076,7 @@
       </c>
       <c r="Q115" s="44">
         <f>Q113/Q114</f>
-        <v>210.06693667304808</v>
+        <v>193.66421116480433</v>
       </c>
     </row>
     <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8076,7 +8093,7 @@
       </c>
       <c r="Q117" s="47">
         <f>Q115/Q116-1</f>
-        <v>0.13115576260324202</v>
+        <v>4.2831356226397777E-2</v>
       </c>
     </row>
     <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">
